--- a/data_input.xlsx
+++ b/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20920" windowHeight="11330"/>
+    <workbookView windowWidth="11520" windowHeight="12215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -44,10 +44,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -57,8 +79,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,7 +97,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,86 +118,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,21 +134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -193,6 +141,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -203,192 +204,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -397,33 +398,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF7E7E7E"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF7E7E7E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF7E7E7E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,30 +428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -478,21 +439,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +460,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,148 +530,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -999,12 +990,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,33 +1010,33 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8000</v>
+      <c r="B2" s="2">
+        <v>382</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8000</v>
+      <c r="B4" s="2">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11200</v>
       </c>
     </row>
   </sheetData>

--- a/data_input.xlsx
+++ b/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="12215"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,10 +45,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -389,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -410,6 +419,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -518,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,143 +550,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1011,32 +1042,76 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>382</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12000</v>
+        <v>793</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9400</v>
+      <c r="B3" s="4">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9800</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11200</v>
+      <c r="B4" s="3">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8200</v>
       </c>
     </row>
   </sheetData>
